--- a/The Battle Cats_Test Case.xlsx
+++ b/The Battle Cats_Test Case.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\PORTFOLIO\BGY_PORTFOLIO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1DD82F9-BBAB-40B1-8B8E-64F68162B725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2BB479C-09E5-409F-B513-63333068B3C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3763AB53-FA48-4467-99E0-82EF25A79D63}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3763AB53-FA48-4467-99E0-82EF25A79D63}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -726,6 +726,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -746,12 +752,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1069,8 +1069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C399DC24-7DCE-4FAA-9CB5-5462B70B7A25}">
   <dimension ref="B2:K115"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection sqref="A1:F33"/>
+    <sheetView tabSelected="1" topLeftCell="A80" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B87" sqref="B87:E89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1085,12 +1085,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
       <c r="F2" s="7"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.4">
@@ -1137,7 +1137,7 @@
       <c r="B8" s="8">
         <v>1</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="21" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="13" t="s">
@@ -1150,7 +1150,7 @@
       <c r="B9" s="8">
         <v>2</v>
       </c>
-      <c r="C9" s="20"/>
+      <c r="C9" s="22"/>
       <c r="D9" s="14" t="s">
         <v>12</v>
       </c>
@@ -1161,7 +1161,7 @@
       <c r="B10" s="8">
         <v>3</v>
       </c>
-      <c r="C10" s="20"/>
+      <c r="C10" s="22"/>
       <c r="D10" s="15" t="s">
         <v>11</v>
       </c>
@@ -1172,7 +1172,7 @@
       <c r="B11" s="8">
         <v>4</v>
       </c>
-      <c r="C11" s="21"/>
+      <c r="C11" s="23"/>
       <c r="D11" s="15" t="s">
         <v>10</v>
       </c>
@@ -1183,7 +1183,7 @@
       <c r="B12" s="8">
         <v>5</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="21" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="13" t="s">
@@ -1199,7 +1199,7 @@
       <c r="B13" s="8">
         <v>6</v>
       </c>
-      <c r="C13" s="20"/>
+      <c r="C13" s="22"/>
       <c r="D13" s="13" t="s">
         <v>24</v>
       </c>
@@ -1210,7 +1210,7 @@
       <c r="B14" s="8">
         <v>7</v>
       </c>
-      <c r="C14" s="20"/>
+      <c r="C14" s="22"/>
       <c r="D14" s="13" t="s">
         <v>15</v>
       </c>
@@ -1221,7 +1221,7 @@
       <c r="B15" s="8">
         <v>8</v>
       </c>
-      <c r="C15" s="20"/>
+      <c r="C15" s="22"/>
       <c r="D15" s="13" t="s">
         <v>25</v>
       </c>
@@ -1232,7 +1232,7 @@
       <c r="B16" s="8">
         <v>9</v>
       </c>
-      <c r="C16" s="20"/>
+      <c r="C16" s="22"/>
       <c r="D16" s="13" t="s">
         <v>16</v>
       </c>
@@ -1243,7 +1243,7 @@
       <c r="B17" s="8">
         <v>10</v>
       </c>
-      <c r="C17" s="20"/>
+      <c r="C17" s="22"/>
       <c r="D17" s="13" t="s">
         <v>17</v>
       </c>
@@ -1254,7 +1254,7 @@
       <c r="B18" s="8">
         <v>11</v>
       </c>
-      <c r="C18" s="20"/>
+      <c r="C18" s="22"/>
       <c r="D18" s="13" t="s">
         <v>26</v>
       </c>
@@ -1265,7 +1265,7 @@
       <c r="B19" s="8">
         <v>12</v>
       </c>
-      <c r="C19" s="20"/>
+      <c r="C19" s="22"/>
       <c r="D19" s="4" t="s">
         <v>18</v>
       </c>
@@ -1276,7 +1276,7 @@
       <c r="B20" s="8">
         <v>13</v>
       </c>
-      <c r="C20" s="20"/>
+      <c r="C20" s="22"/>
       <c r="D20" s="13" t="s">
         <v>19</v>
       </c>
@@ -1287,7 +1287,7 @@
       <c r="B21" s="8">
         <v>14</v>
       </c>
-      <c r="C21" s="20"/>
+      <c r="C21" s="22"/>
       <c r="D21" s="13" t="s">
         <v>29</v>
       </c>
@@ -1298,7 +1298,7 @@
       <c r="B22" s="17">
         <v>15</v>
       </c>
-      <c r="C22" s="20"/>
+      <c r="C22" s="22"/>
       <c r="D22" s="18" t="s">
         <v>30</v>
       </c>
@@ -1309,7 +1309,7 @@
       <c r="B23" s="8">
         <v>16</v>
       </c>
-      <c r="C23" s="20"/>
+      <c r="C23" s="22"/>
       <c r="D23" s="13" t="s">
         <v>31</v>
       </c>
@@ -1320,7 +1320,7 @@
       <c r="B24" s="8">
         <v>17</v>
       </c>
-      <c r="C24" s="20"/>
+      <c r="C24" s="22"/>
       <c r="D24" s="13" t="s">
         <v>32</v>
       </c>
@@ -1331,7 +1331,7 @@
       <c r="B25" s="8">
         <v>18</v>
       </c>
-      <c r="C25" s="20"/>
+      <c r="C25" s="22"/>
       <c r="D25" s="13" t="s">
         <v>27</v>
       </c>
@@ -1342,7 +1342,7 @@
       <c r="B26" s="8">
         <v>19</v>
       </c>
-      <c r="C26" s="20"/>
+      <c r="C26" s="22"/>
       <c r="D26" s="13" t="s">
         <v>28</v>
       </c>
@@ -1353,7 +1353,7 @@
       <c r="B27" s="8">
         <v>20</v>
       </c>
-      <c r="C27" s="20"/>
+      <c r="C27" s="22"/>
       <c r="D27" s="13" t="s">
         <v>20</v>
       </c>
@@ -1364,7 +1364,7 @@
       <c r="B28" s="8">
         <v>21</v>
       </c>
-      <c r="C28" s="20"/>
+      <c r="C28" s="22"/>
       <c r="D28" s="13" t="s">
         <v>21</v>
       </c>
@@ -1375,7 +1375,7 @@
       <c r="B29" s="8">
         <v>22</v>
       </c>
-      <c r="C29" s="20"/>
+      <c r="C29" s="22"/>
       <c r="D29" s="4" t="s">
         <v>22</v>
       </c>
@@ -1386,7 +1386,7 @@
       <c r="B30" s="8">
         <v>23</v>
       </c>
-      <c r="C30" s="20"/>
+      <c r="C30" s="22"/>
       <c r="D30" s="13" t="s">
         <v>23</v>
       </c>
@@ -1397,7 +1397,7 @@
       <c r="B31" s="8">
         <v>24</v>
       </c>
-      <c r="C31" s="20"/>
+      <c r="C31" s="22"/>
       <c r="D31" s="13" t="s">
         <v>88</v>
       </c>
@@ -1408,7 +1408,7 @@
       <c r="B32" s="8">
         <v>25</v>
       </c>
-      <c r="C32" s="20"/>
+      <c r="C32" s="22"/>
       <c r="D32" s="13" t="s">
         <v>89</v>
       </c>
@@ -1419,7 +1419,7 @@
       <c r="B33" s="8">
         <v>26</v>
       </c>
-      <c r="C33" s="21"/>
+      <c r="C33" s="23"/>
       <c r="D33" s="13" t="s">
         <v>90</v>
       </c>
@@ -1430,7 +1430,7 @@
       <c r="B34" s="8">
         <v>27</v>
       </c>
-      <c r="C34" s="19" t="s">
+      <c r="C34" s="21" t="s">
         <v>37</v>
       </c>
       <c r="D34" s="13" t="s">
@@ -1443,7 +1443,7 @@
       <c r="B35" s="8">
         <v>28</v>
       </c>
-      <c r="C35" s="20"/>
+      <c r="C35" s="22"/>
       <c r="D35" s="13" t="s">
         <v>34</v>
       </c>
@@ -1454,7 +1454,7 @@
       <c r="B36" s="8">
         <v>29</v>
       </c>
-      <c r="C36" s="20"/>
+      <c r="C36" s="22"/>
       <c r="D36" s="13" t="s">
         <v>35</v>
       </c>
@@ -1465,7 +1465,7 @@
       <c r="B37" s="8">
         <v>30</v>
       </c>
-      <c r="C37" s="20"/>
+      <c r="C37" s="22"/>
       <c r="D37" s="13" t="s">
         <v>84</v>
       </c>
@@ -1476,7 +1476,7 @@
       <c r="B38" s="8">
         <v>31</v>
       </c>
-      <c r="C38" s="20"/>
+      <c r="C38" s="22"/>
       <c r="D38" s="13" t="s">
         <v>50</v>
       </c>
@@ -1487,7 +1487,7 @@
       <c r="B39" s="8">
         <v>32</v>
       </c>
-      <c r="C39" s="20"/>
+      <c r="C39" s="22"/>
       <c r="D39" s="13" t="s">
         <v>36</v>
       </c>
@@ -1498,7 +1498,7 @@
       <c r="B40" s="8">
         <v>33</v>
       </c>
-      <c r="C40" s="21"/>
+      <c r="C40" s="23"/>
       <c r="D40" s="13" t="s">
         <v>38</v>
       </c>
@@ -1509,7 +1509,7 @@
       <c r="B41" s="8">
         <v>34</v>
       </c>
-      <c r="C41" s="19" t="s">
+      <c r="C41" s="21" t="s">
         <v>39</v>
       </c>
       <c r="D41" s="13" t="s">
@@ -1522,7 +1522,7 @@
       <c r="B42" s="8">
         <v>35</v>
       </c>
-      <c r="C42" s="20"/>
+      <c r="C42" s="22"/>
       <c r="D42" s="13" t="s">
         <v>43</v>
       </c>
@@ -1533,7 +1533,7 @@
       <c r="B43" s="8">
         <v>36</v>
       </c>
-      <c r="C43" s="20"/>
+      <c r="C43" s="22"/>
       <c r="D43" s="13" t="s">
         <v>41</v>
       </c>
@@ -1544,7 +1544,7 @@
       <c r="B44" s="8">
         <v>37</v>
       </c>
-      <c r="C44" s="20"/>
+      <c r="C44" s="22"/>
       <c r="D44" s="13" t="s">
         <v>44</v>
       </c>
@@ -1555,7 +1555,7 @@
       <c r="B45" s="8">
         <v>38</v>
       </c>
-      <c r="C45" s="20"/>
+      <c r="C45" s="22"/>
       <c r="D45" s="13" t="s">
         <v>47</v>
       </c>
@@ -1566,7 +1566,7 @@
       <c r="B46" s="8">
         <v>39</v>
       </c>
-      <c r="C46" s="20"/>
+      <c r="C46" s="22"/>
       <c r="D46" s="13" t="s">
         <v>42</v>
       </c>
@@ -1577,7 +1577,7 @@
       <c r="B47" s="8">
         <v>40</v>
       </c>
-      <c r="C47" s="20"/>
+      <c r="C47" s="22"/>
       <c r="D47" s="13" t="s">
         <v>45</v>
       </c>
@@ -1588,7 +1588,7 @@
       <c r="B48" s="8">
         <v>41</v>
       </c>
-      <c r="C48" s="21"/>
+      <c r="C48" s="23"/>
       <c r="D48" s="13" t="s">
         <v>48</v>
       </c>
@@ -1599,7 +1599,7 @@
       <c r="B49" s="8">
         <v>42</v>
       </c>
-      <c r="C49" s="19" t="s">
+      <c r="C49" s="21" t="s">
         <v>49</v>
       </c>
       <c r="D49" s="13" t="s">
@@ -1612,7 +1612,7 @@
       <c r="B50" s="8">
         <v>43</v>
       </c>
-      <c r="C50" s="20"/>
+      <c r="C50" s="22"/>
       <c r="D50" s="13" t="s">
         <v>51</v>
       </c>
@@ -1623,7 +1623,7 @@
       <c r="B51" s="8">
         <v>44</v>
       </c>
-      <c r="C51" s="20"/>
+      <c r="C51" s="22"/>
       <c r="D51" s="13" t="s">
         <v>52</v>
       </c>
@@ -1634,7 +1634,7 @@
       <c r="B52" s="8">
         <v>45</v>
       </c>
-      <c r="C52" s="20"/>
+      <c r="C52" s="22"/>
       <c r="D52" s="13" t="s">
         <v>53</v>
       </c>
@@ -1645,7 +1645,7 @@
       <c r="B53" s="8">
         <v>46</v>
       </c>
-      <c r="C53" s="20"/>
+      <c r="C53" s="22"/>
       <c r="D53" s="13" t="s">
         <v>55</v>
       </c>
@@ -1656,7 +1656,7 @@
       <c r="B54" s="8">
         <v>47</v>
       </c>
-      <c r="C54" s="20"/>
+      <c r="C54" s="22"/>
       <c r="D54" s="13" t="s">
         <v>54</v>
       </c>
@@ -1667,7 +1667,7 @@
       <c r="B55" s="8">
         <v>48</v>
       </c>
-      <c r="C55" s="21"/>
+      <c r="C55" s="23"/>
       <c r="D55" s="13" t="s">
         <v>62</v>
       </c>
@@ -1678,7 +1678,7 @@
       <c r="B56" s="8">
         <v>49</v>
       </c>
-      <c r="C56" s="19" t="s">
+      <c r="C56" s="21" t="s">
         <v>56</v>
       </c>
       <c r="D56" s="13" t="s">
@@ -1691,7 +1691,7 @@
       <c r="B57" s="8">
         <v>50</v>
       </c>
-      <c r="C57" s="20"/>
+      <c r="C57" s="22"/>
       <c r="D57" s="13" t="s">
         <v>59</v>
       </c>
@@ -1702,7 +1702,7 @@
       <c r="B58" s="8">
         <v>51</v>
       </c>
-      <c r="C58" s="20"/>
+      <c r="C58" s="22"/>
       <c r="D58" s="13" t="s">
         <v>60</v>
       </c>
@@ -1713,7 +1713,7 @@
       <c r="B59" s="8">
         <v>52</v>
       </c>
-      <c r="C59" s="20"/>
+      <c r="C59" s="22"/>
       <c r="D59" s="13" t="s">
         <v>61</v>
       </c>
@@ -1724,7 +1724,7 @@
       <c r="B60" s="8">
         <v>53</v>
       </c>
-      <c r="C60" s="21"/>
+      <c r="C60" s="23"/>
       <c r="D60" s="13" t="s">
         <v>62</v>
       </c>
@@ -1735,7 +1735,7 @@
       <c r="B61" s="8">
         <v>54</v>
       </c>
-      <c r="C61" s="19" t="s">
+      <c r="C61" s="21" t="s">
         <v>63</v>
       </c>
       <c r="D61" s="13" t="s">
@@ -1748,7 +1748,7 @@
       <c r="B62" s="8">
         <v>55</v>
       </c>
-      <c r="C62" s="20"/>
+      <c r="C62" s="22"/>
       <c r="D62" s="13" t="s">
         <v>65</v>
       </c>
@@ -1759,7 +1759,7 @@
       <c r="B63" s="8">
         <v>56</v>
       </c>
-      <c r="C63" s="20"/>
+      <c r="C63" s="22"/>
       <c r="D63" s="13" t="s">
         <v>66</v>
       </c>
@@ -1770,7 +1770,7 @@
       <c r="B64" s="8">
         <v>57</v>
       </c>
-      <c r="C64" s="20"/>
+      <c r="C64" s="22"/>
       <c r="D64" s="13" t="s">
         <v>67</v>
       </c>
@@ -1780,7 +1780,7 @@
       <c r="B65" s="8">
         <v>58</v>
       </c>
-      <c r="C65" s="20"/>
+      <c r="C65" s="22"/>
       <c r="D65" s="13" t="s">
         <v>68</v>
       </c>
@@ -1790,7 +1790,7 @@
       <c r="B66" s="8">
         <v>59</v>
       </c>
-      <c r="C66" s="20"/>
+      <c r="C66" s="22"/>
       <c r="D66" s="13" t="s">
         <v>69</v>
       </c>
@@ -1800,7 +1800,7 @@
       <c r="B67" s="8">
         <v>60</v>
       </c>
-      <c r="C67" s="20"/>
+      <c r="C67" s="22"/>
       <c r="D67" s="13" t="s">
         <v>70</v>
       </c>
@@ -1810,7 +1810,7 @@
       <c r="B68" s="8">
         <v>61</v>
       </c>
-      <c r="C68" s="21"/>
+      <c r="C68" s="23"/>
       <c r="D68" s="13" t="s">
         <v>71</v>
       </c>
@@ -1820,7 +1820,7 @@
       <c r="B69" s="8">
         <v>62</v>
       </c>
-      <c r="C69" s="23" t="s">
+      <c r="C69" s="25" t="s">
         <v>107</v>
       </c>
       <c r="D69" s="13" t="s">
@@ -1832,7 +1832,7 @@
       <c r="B70" s="8">
         <v>63</v>
       </c>
-      <c r="C70" s="24"/>
+      <c r="C70" s="26"/>
       <c r="D70" s="4" t="s">
         <v>72</v>
       </c>
@@ -1842,7 +1842,7 @@
       <c r="B71" s="8">
         <v>64</v>
       </c>
-      <c r="C71" s="24"/>
+      <c r="C71" s="26"/>
       <c r="D71" s="13" t="s">
         <v>73</v>
       </c>
@@ -1852,7 +1852,7 @@
       <c r="B72" s="8">
         <v>65</v>
       </c>
-      <c r="C72" s="24"/>
+      <c r="C72" s="26"/>
       <c r="D72" s="13" t="s">
         <v>74</v>
       </c>
@@ -1862,7 +1862,7 @@
       <c r="B73" s="8">
         <v>66</v>
       </c>
-      <c r="C73" s="24"/>
+      <c r="C73" s="26"/>
       <c r="D73" s="13" t="s">
         <v>75</v>
       </c>
@@ -1872,7 +1872,7 @@
       <c r="B74" s="8">
         <v>67</v>
       </c>
-      <c r="C74" s="25"/>
+      <c r="C74" s="27"/>
       <c r="D74" s="13" t="s">
         <v>76</v>
       </c>
@@ -1882,7 +1882,7 @@
       <c r="B75" s="8">
         <v>68</v>
       </c>
-      <c r="C75" s="23" t="s">
+      <c r="C75" s="25" t="s">
         <v>108</v>
       </c>
       <c r="D75" s="13" t="s">
@@ -1894,7 +1894,7 @@
       <c r="B76" s="8">
         <v>69</v>
       </c>
-      <c r="C76" s="24"/>
+      <c r="C76" s="26"/>
       <c r="D76" s="13" t="s">
         <v>77</v>
       </c>
@@ -1904,7 +1904,7 @@
       <c r="B77" s="8">
         <v>70</v>
       </c>
-      <c r="C77" s="24"/>
+      <c r="C77" s="26"/>
       <c r="D77" s="13" t="s">
         <v>83</v>
       </c>
@@ -1914,7 +1914,7 @@
       <c r="B78" s="8">
         <v>71</v>
       </c>
-      <c r="C78" s="24"/>
+      <c r="C78" s="26"/>
       <c r="D78" s="13" t="s">
         <v>78</v>
       </c>
@@ -1924,7 +1924,7 @@
       <c r="B79" s="8">
         <v>72</v>
       </c>
-      <c r="C79" s="24"/>
+      <c r="C79" s="26"/>
       <c r="D79" s="13" t="s">
         <v>79</v>
       </c>
@@ -1934,7 +1934,7 @@
       <c r="B80" s="8">
         <v>73</v>
       </c>
-      <c r="C80" s="24"/>
+      <c r="C80" s="26"/>
       <c r="D80" s="13" t="s">
         <v>76</v>
       </c>
@@ -1944,7 +1944,7 @@
       <c r="B81" s="8">
         <v>74</v>
       </c>
-      <c r="C81" s="25"/>
+      <c r="C81" s="27"/>
       <c r="D81" s="13" t="s">
         <v>80</v>
       </c>
@@ -1954,7 +1954,7 @@
       <c r="B82" s="8">
         <v>75</v>
       </c>
-      <c r="C82" s="23" t="s">
+      <c r="C82" s="25" t="s">
         <v>109</v>
       </c>
       <c r="D82" s="13" t="s">
@@ -1966,7 +1966,7 @@
       <c r="B83" s="8">
         <v>76</v>
       </c>
-      <c r="C83" s="24"/>
+      <c r="C83" s="26"/>
       <c r="D83" s="13" t="s">
         <v>62</v>
       </c>
@@ -1976,7 +1976,7 @@
       <c r="B84" s="8">
         <v>77</v>
       </c>
-      <c r="C84" s="24"/>
+      <c r="C84" s="26"/>
       <c r="D84" s="13" t="s">
         <v>82</v>
       </c>
@@ -1986,7 +1986,7 @@
       <c r="B85" s="8">
         <v>78</v>
       </c>
-      <c r="C85" s="24"/>
+      <c r="C85" s="26"/>
       <c r="D85" s="13" t="s">
         <v>81</v>
       </c>
@@ -1996,15 +1996,17 @@
       <c r="B86" s="8">
         <v>79</v>
       </c>
-      <c r="C86" s="25"/>
+      <c r="C86" s="27"/>
       <c r="D86" s="13" t="s">
         <v>76</v>
       </c>
       <c r="E86" s="16"/>
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B87" s="8"/>
-      <c r="C87" s="23" t="s">
+      <c r="B87" s="8">
+        <v>80</v>
+      </c>
+      <c r="C87" s="25" t="s">
         <v>110</v>
       </c>
       <c r="D87" s="13" t="s">
@@ -2014,9 +2016,9 @@
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B88" s="8">
-        <v>80</v>
-      </c>
-      <c r="C88" s="24"/>
+        <v>81</v>
+      </c>
+      <c r="C88" s="26"/>
       <c r="D88" s="13" t="s">
         <v>85</v>
       </c>
@@ -2024,9 +2026,9 @@
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B89" s="8">
-        <v>81</v>
-      </c>
-      <c r="C89" s="25"/>
+        <v>82</v>
+      </c>
+      <c r="C89" s="27"/>
       <c r="D89" s="13" t="s">
         <v>87</v>
       </c>
@@ -2034,9 +2036,9 @@
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B90" s="8">
-        <v>82</v>
-      </c>
-      <c r="C90" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C90" s="21" t="s">
         <v>91</v>
       </c>
       <c r="D90" s="13" t="s">
@@ -2046,9 +2048,9 @@
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B91" s="8">
-        <v>83</v>
-      </c>
-      <c r="C91" s="20"/>
+        <v>84</v>
+      </c>
+      <c r="C91" s="22"/>
       <c r="D91" s="13" t="s">
         <v>92</v>
       </c>
@@ -2056,9 +2058,9 @@
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B92" s="8">
-        <v>84</v>
-      </c>
-      <c r="C92" s="20"/>
+        <v>85</v>
+      </c>
+      <c r="C92" s="22"/>
       <c r="D92" s="4" t="s">
         <v>93</v>
       </c>
@@ -2066,9 +2068,9 @@
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B93" s="8">
-        <v>85</v>
-      </c>
-      <c r="C93" s="20"/>
+        <v>86</v>
+      </c>
+      <c r="C93" s="22"/>
       <c r="D93" s="13" t="s">
         <v>94</v>
       </c>
@@ -2076,9 +2078,9 @@
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B94" s="8">
-        <v>86</v>
-      </c>
-      <c r="C94" s="20"/>
+        <v>87</v>
+      </c>
+      <c r="C94" s="22"/>
       <c r="D94" s="13" t="s">
         <v>95</v>
       </c>
@@ -2086,9 +2088,9 @@
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B95" s="8">
-        <v>87</v>
-      </c>
-      <c r="C95" s="20"/>
+        <v>88</v>
+      </c>
+      <c r="C95" s="22"/>
       <c r="D95" s="13" t="s">
         <v>96</v>
       </c>
@@ -2096,9 +2098,9 @@
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B96" s="8">
-        <v>88</v>
-      </c>
-      <c r="C96" s="20"/>
+        <v>89</v>
+      </c>
+      <c r="C96" s="22"/>
       <c r="D96" s="13" t="s">
         <v>97</v>
       </c>
@@ -2106,9 +2108,9 @@
     </row>
     <row r="97" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B97" s="8">
-        <v>89</v>
-      </c>
-      <c r="C97" s="20"/>
+        <v>90</v>
+      </c>
+      <c r="C97" s="22"/>
       <c r="D97" s="13" t="s">
         <v>98</v>
       </c>
@@ -2116,9 +2118,9 @@
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B98" s="8">
-        <v>90</v>
-      </c>
-      <c r="C98" s="20"/>
+        <v>91</v>
+      </c>
+      <c r="C98" s="22"/>
       <c r="D98" s="13" t="s">
         <v>99</v>
       </c>
@@ -2126,9 +2128,9 @@
     </row>
     <row r="99" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B99" s="8">
-        <v>91</v>
-      </c>
-      <c r="C99" s="20"/>
+        <v>92</v>
+      </c>
+      <c r="C99" s="22"/>
       <c r="D99" s="13" t="s">
         <v>100</v>
       </c>
@@ -2136,9 +2138,9 @@
     </row>
     <row r="100" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B100" s="8">
-        <v>92</v>
-      </c>
-      <c r="C100" s="21"/>
+        <v>93</v>
+      </c>
+      <c r="C100" s="23"/>
       <c r="D100" s="4" t="s">
         <v>101</v>
       </c>
@@ -2146,9 +2148,9 @@
     </row>
     <row r="101" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B101" s="8">
-        <v>93</v>
-      </c>
-      <c r="C101" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="C101" s="24" t="s">
         <v>102</v>
       </c>
       <c r="D101" s="13" t="s">
@@ -2158,9 +2160,9 @@
     </row>
     <row r="102" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B102" s="8">
-        <v>94</v>
-      </c>
-      <c r="C102" s="22"/>
+        <v>95</v>
+      </c>
+      <c r="C102" s="24"/>
       <c r="D102" s="13" t="s">
         <v>92</v>
       </c>
@@ -2168,9 +2170,9 @@
     </row>
     <row r="103" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B103" s="8">
-        <v>95</v>
-      </c>
-      <c r="C103" s="22"/>
+        <v>96</v>
+      </c>
+      <c r="C103" s="24"/>
       <c r="D103" s="13" t="s">
         <v>103</v>
       </c>
@@ -2178,9 +2180,9 @@
     </row>
     <row r="104" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B104" s="8">
-        <v>96</v>
-      </c>
-      <c r="C104" s="22"/>
+        <v>97</v>
+      </c>
+      <c r="C104" s="24"/>
       <c r="D104" s="13" t="s">
         <v>104</v>
       </c>
@@ -2188,9 +2190,9 @@
     </row>
     <row r="105" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B105" s="8">
-        <v>97</v>
-      </c>
-      <c r="C105" s="22"/>
+        <v>98</v>
+      </c>
+      <c r="C105" s="24"/>
       <c r="D105" s="13" t="s">
         <v>105</v>
       </c>
@@ -2198,9 +2200,9 @@
     </row>
     <row r="106" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B106" s="8">
-        <v>98</v>
-      </c>
-      <c r="C106" s="22"/>
+        <v>99</v>
+      </c>
+      <c r="C106" s="24"/>
       <c r="D106" s="4" t="s">
         <v>93</v>
       </c>
@@ -2208,9 +2210,9 @@
     </row>
     <row r="107" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B107" s="8">
-        <v>99</v>
-      </c>
-      <c r="C107" s="22"/>
+        <v>100</v>
+      </c>
+      <c r="C107" s="24"/>
       <c r="D107" s="13" t="s">
         <v>94</v>
       </c>
@@ -2218,9 +2220,9 @@
     </row>
     <row r="108" spans="2:5" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B108" s="8">
-        <v>100</v>
-      </c>
-      <c r="C108" s="22"/>
+        <v>101</v>
+      </c>
+      <c r="C108" s="24"/>
       <c r="D108" s="13" t="s">
         <v>106</v>
       </c>
@@ -2228,9 +2230,9 @@
     </row>
     <row r="109" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B109" s="8">
-        <v>101</v>
-      </c>
-      <c r="C109" s="22"/>
+        <v>102</v>
+      </c>
+      <c r="C109" s="24"/>
       <c r="D109" s="13" t="s">
         <v>95</v>
       </c>
@@ -2238,9 +2240,9 @@
     </row>
     <row r="110" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B110" s="8">
-        <v>102</v>
-      </c>
-      <c r="C110" s="22"/>
+        <v>103</v>
+      </c>
+      <c r="C110" s="24"/>
       <c r="D110" s="13" t="s">
         <v>96</v>
       </c>
@@ -2248,9 +2250,9 @@
     </row>
     <row r="111" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B111" s="8">
-        <v>103</v>
-      </c>
-      <c r="C111" s="22"/>
+        <v>104</v>
+      </c>
+      <c r="C111" s="24"/>
       <c r="D111" s="13" t="s">
         <v>97</v>
       </c>
@@ -2258,9 +2260,9 @@
     </row>
     <row r="112" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B112" s="8">
-        <v>104</v>
-      </c>
-      <c r="C112" s="22"/>
+        <v>105</v>
+      </c>
+      <c r="C112" s="24"/>
       <c r="D112" s="13" t="s">
         <v>98</v>
       </c>
@@ -2268,9 +2270,9 @@
     </row>
     <row r="113" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B113" s="8">
-        <v>105</v>
-      </c>
-      <c r="C113" s="22"/>
+        <v>106</v>
+      </c>
+      <c r="C113" s="24"/>
       <c r="D113" s="13" t="s">
         <v>99</v>
       </c>
@@ -2278,9 +2280,9 @@
     </row>
     <row r="114" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B114" s="8">
-        <v>106</v>
-      </c>
-      <c r="C114" s="22"/>
+        <v>107</v>
+      </c>
+      <c r="C114" s="24"/>
       <c r="D114" s="13" t="s">
         <v>100</v>
       </c>
@@ -2288,9 +2290,9 @@
     </row>
     <row r="115" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B115" s="8">
-        <v>107</v>
-      </c>
-      <c r="C115" s="22"/>
+        <v>108</v>
+      </c>
+      <c r="C115" s="24"/>
       <c r="D115" s="4" t="s">
         <v>101</v>
       </c>
